--- a/ProductList.xlsx
+++ b/ProductList.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="285">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="394">
   <x:si>
     <x:t>ProductName</x:t>
   </x:si>
@@ -559,6 +559,342 @@
     <x:t>https://www.amazon.in/Zebronics-ZEB-SP116-Compatible-Assistant-Monitoring/dp/B08F3Q1RK3/ref=sr_1_200?crid=SC3YJGOCKP5Z&amp;keywords=electronics&amp;qid=1692988586&amp;sprefix=%2Caps%2C196&amp;sr=8-200</x:t>
   </x:si>
   <x:si>
+    <x:t>productAmount</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RENEE Princess Unicorn Makeup Kit for Pre-teen Girls| Includes 2 Matte, 4 Shimmer Eyeshadows, Lip Butter, Lip &amp; Cheek Tint| Cruelty Free &amp; Vegan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.in/RENEE-Makeup-Kit-Eyeshadows-Travel-Friendly/dp/B0BD4RMW22/ref=sr_1_5?crid=3HX1IVY53KV90&amp;keywords=cosmetic+Product&amp;qid=1693367279&amp;sprefix=cosmetic+product%2Caps%2C215&amp;sr=8-5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SUGAR Cosmetics - Face Fwd &gt;&gt; - Contour Stick - 01 Fawn First (Milk Chocolate Brown Contour) - Longlasting Formula, Lightweight, For Easy Contouring</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.in/SUGAR-Cosmetics-Face-Contour-Stick/dp/B083Q6655N/ref=sr_1_6?crid=3HX1IVY53KV90&amp;keywords=cosmetic+Product&amp;qid=1693367279&amp;sprefix=cosmetic+product%2Caps%2C215&amp;sr=8-6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SUGAR Cosmetics - Tipsy Lips - Moisturizing Balm - 02 Cosmopolitan - 4.5 gms - Lip Moisturizer for Dry and Chapped Lips, Enriched with Shea Butter and Jojoba Oil</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.in/SUGAR-Cosmetics-Tipsy-Lips-Moisturizing/dp/B08J3PBD23/ref=sr_1_7?crid=3HX1IVY53KV90&amp;keywords=cosmetic+Product&amp;qid=1693367279&amp;sprefix=cosmetic+product%2Caps%2C215&amp;sr=8-7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>167</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SUGAR Cosmetics - All Set To Go - Banana Powder - Setting Powder for Mattified Skin - Oil-Controlling, Smooth Application</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.in/SUGAR-Cosmetics-All-Banana-Powder/dp/B07ZQKBCXH/ref=sr_1_8?crid=3HX1IVY53KV90&amp;keywords=cosmetic+Product&amp;qid=1693367279&amp;sprefix=cosmetic+product%2Caps%2C215&amp;sr=8-8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>545</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SUGAR Cosmetics - Contour De Force - Face Palette with Lightweight Blush, Highlighter And Bronzer - 02 Vivid Victory - Long Lasting Contour Blush Palette</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.in/SUGAR-Cosmetics-Victory-Contour-Highlighter/dp/B077P6BNFL/ref=sr_1_9?crid=3HX1IVY53KV90&amp;keywords=cosmetic+Product&amp;qid=1693367279&amp;sprefix=cosmetic+product%2Caps%2C215&amp;sr=8-9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>671</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SUGAR Cosmetics - Contour De Force - Face Palette with Lightweight Blush, Highlighter And Bronzer - 01 Subtle Summit - Long Lasting Contour Blush Palette</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.in/SUGAR-Cosmetics-Contour-Champagne-Highlighter/dp/B077P4Z46L/ref=sr_1_10?crid=3HX1IVY53KV90&amp;keywords=cosmetic+Product&amp;qid=1693367279&amp;sprefix=cosmetic+product%2Caps%2C215&amp;sr=8-10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SUGAR Cosmetics - Set The Tone - Tinted Powder - 30 Chococcino (Medium Tones) - Long Lasting Tinted Powder for Matte Finish</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.in/SUGAR-Cosmetics-Tone-Tinted-Powder/dp/B081DTHCZ9/ref=sr_1_11?crid=3HX1IVY53KV90&amp;keywords=cosmetic+Product&amp;qid=1693367279&amp;sprefix=cosmetic+product%2Caps%2C215&amp;sr=8-11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>587</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SUGAR Cosmetics - Blend The Rules - Eyeshadow Palette - 01 Flawless (8 Warm Neutral Shades) - Long Lasting, Smudge Proof Eyeshadow for Smoky Eye Look, Paraben-Free</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.in/SUGAR-Cosmetics-Eyeshadow-Flawless-Neutrals/dp/B07YPX27FY/ref=sr_1_12?crid=3HX1IVY53KV90&amp;keywords=cosmetic+Product&amp;qid=1693367279&amp;sprefix=cosmetic+product%2Caps%2C215&amp;sr=8-12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>966.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Iba Must Have Complete Makeup Box for Women (Fair) l with 11 Essential Products l Waterproof l Bridal Makeup l Full Face Makeup | 100% Vegan &amp; Cruelty Free</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.in/Iba-Complete-Essential-Products-Waterproof/dp/B09W5HZC9X/ref=sr_1_13?crid=3HX1IVY53KV90&amp;keywords=cosmetic+Product&amp;qid=1693367279&amp;sprefix=cosmetic+product%2Caps%2C215&amp;sr=8-13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SUGAR Cosmetics - Grand Finale - Dewy Setting Mist - 50 ml - 2-in-1 Setting Mist - For Longlasting Makeup and Sun Protection - Paraben Free</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.in/SUGAR-Cosmetics-Finale-Setting-Finish/dp/B08GKYM1PG/ref=sr_1_14?crid=3HX1IVY53KV90&amp;keywords=cosmetic+Product&amp;qid=1693367279&amp;sprefix=cosmetic+product%2Caps%2C215&amp;sr=8-14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RENEE Bollywood Filter Face Primer 15gm | for a Flawless &amp; Smooth Canvas| Blurs Fine Lines, Wrinkles &amp; Pores Instantly | Hydrating, Lightweight &amp; Non-sticky | Cruelty-free</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.in/RENEE-Bollywood-Instantly-Lightweight-Non-sticky/dp/B0BCFDW8RZ/ref=sr_1_15?crid=3HX1IVY53KV90&amp;keywords=cosmetic+Product&amp;qid=1693367279&amp;sprefix=cosmetic+product%2Caps%2C215&amp;sr=8-15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>375</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SUGAR Cosmetics - Goddess Of Flawless - BB Cream - 15 Cappuccino (Light Shades) - Long Lasting, Lightweight BB Cream with Matte Finish</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.in/SUGAR-Cosmetics-Goddess-Flawless-SPF30/dp/B07YSRFQ68/ref=sr_1_16?crid=3HX1IVY53KV90&amp;keywords=cosmetic+Product&amp;qid=1693367279&amp;sprefix=cosmetic+product%2Caps%2C215&amp;sr=8-16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Colorbar Cosmetics Flawless Finish Primer, Transparent, 30 ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.in/Colorbar-Cosmetics-Flawless-Finish-Transparent/dp/B08CBF7KYF/ref=sr_1_17?crid=3HX1IVY53KV90&amp;keywords=cosmetic+Product&amp;qid=1693367279&amp;sprefix=cosmetic+product%2Caps%2C215&amp;sr=8-17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>379</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SUGAR Cosmetics - Ace Of Face - Matte Foundation Stick - 10 Latte (Light Foundation with Warm Undertone) - Waterproof, Full Coverage Foundation for Women with Inbuilt Brush - 12 g</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.in/SUGAR-Cosmetics-Light-Latte-Foundation/dp/B0797QBFSG/ref=sr_1_18?crid=3HX1IVY53KV90&amp;keywords=cosmetic+Product&amp;qid=1693367279&amp;sprefix=cosmetic+product%2Caps%2C215&amp;sr=8-18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>839</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shiseido Synchro Skin Radiant Lifting Foundation SPF 30 For Women</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.in/Shiseido-Synchro-Radiant-Lifting-Foundation/dp/B08WCB7B4Q/ref=sr_1_19?crid=3HX1IVY53KV90&amp;keywords=cosmetic+Product&amp;qid=1693367279&amp;sprefix=cosmetic+product%2Caps%2C215&amp;sr=8-19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SUGAR Cosmetics - Gloss Boss - 24HR Eyeliner - 01 Back In Black (Black Eyeliner) - Glossy Eyeliner With Brush, Smudge Proof, Party-Wear Eye Liner, Lasts Up to 24 hours, Glossy Finish</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.in/SUGAR-Cosmetics-Eyeliner-Glossy-Party-Wear/dp/B09DYHYV8Y/ref=sr_1_20?crid=3HX1IVY53KV90&amp;keywords=cosmetic+Product&amp;qid=1693367279&amp;sprefix=cosmetic+product%2Caps%2C215&amp;sr=8-20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>419</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Travigo 2 Pieces 4-in-1 Travel Bottle Set, Dispenser, Includes Four 40 mL Cosmetic Toiletry Containers for Shampoo, Lotions, Skincare, Makeup Products (Gray-Pink (2-PC SET))</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.in/Travigo-Dispenser-Cosmetic-Containers-Gray-Pink/dp/B084H6BD7C/ref=sr_1_25?crid=3HX1IVY53KV90&amp;keywords=cosmetic+Product&amp;qid=1693367279&amp;sprefix=cosmetic+product%2Caps%2C215&amp;sr=8-25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SUGAR Cosmetics - Contour De Force - Mini Blush - 02 Pink Pinnacle (Deep Rose Blush) - Long Lasting, Lightweight Makeup Blusher for Face</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.in/SUGAR-Cosmetics-Contour-Force-Pinnacle/dp/B077P5NS2B/ref=sr_1_26?crid=3HX1IVY53KV90&amp;keywords=cosmetic+Product&amp;qid=1693367279&amp;sprefix=cosmetic+product%2Caps%2C215&amp;sr=8-26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>293</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KORA Organics Noni Glow Face Oil, 30 ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.in/KORA-Organics-Noni-Glow-Face/dp/B07PVNYM4R/ref=sr_1_28?crid=3HX1IVY53KV90&amp;keywords=cosmetic+Product&amp;qid=1693367279&amp;sprefix=cosmetic+product%2Caps%2C215&amp;sr=8-28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,580</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SUGAR Cosmetics - Magic Wand- Waterproof Concealer - 15 Cappuccino (Light Concealer with Cool Undertone) - Long Lasting, Water-proof Concealer, Lasts Up to 8 hours</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.in/SUGAR-Cosmetics-Magic-Waterproof-Concealer/dp/B07YZ5LRC6/ref=sr_1_29?crid=3HX1IVY53KV90&amp;keywords=cosmetic+Product&amp;qid=1693367279&amp;sprefix=cosmetic+product%2Caps%2C215&amp;sr=8-29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>699.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FIXDERMA COSMETIC LABORATORIES 10% Glycolic Acid + 2% Alpha Arbutin AHA LIGHTENING GEL Serum for Skin brightening | AHA Serum for Men &amp; Women | Paraben free - 30ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.in/FIXDERMA-COSMETIC-LABORATORIES-LIGHTENING-brightening/dp/B089NP34DY/ref=sr_1_30?crid=3HX1IVY53KV90&amp;keywords=cosmetic+Product&amp;qid=1693367279&amp;sprefix=cosmetic+product%2Caps%2C215&amp;sr=8-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,550</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FIXDERMA COSMETIC LABORATORIES Wrinkle Treatment Eye Refining Gel Matrix for Dark Circles &amp; Under Eye Puffiness (15g)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.in/FIXDERMA-COSMETIC-LABORATORIES-Treatment-Puffiness/dp/B089NMJ8LH/ref=sr_1_31?crid=3HX1IVY53KV90&amp;keywords=cosmetic+Product&amp;qid=1693367279&amp;sprefix=cosmetic+product%2Caps%2C215&amp;sr=8-31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FIXDERMA COSMETIC LABORATORIES ALPHA BETA Acne Cleanser, Reduces Pimples, Regulates Sebum Production, Deep Pore Cleansing, Soap Free and Non-Comedogenic Formulation 200ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.in/FIXDERMA-COSMETIC-LABORATORIES-Non-Comedogenic-Formulation/dp/B089N4ZPQR/ref=sr_1_32?crid=3HX1IVY53KV90&amp;keywords=cosmetic+Product&amp;qid=1693367279&amp;sprefix=cosmetic+product%2Caps%2C215&amp;sr=8-32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SHREE MAHA Fancy Empty Plastic Cosmetic Jar/Container for Eyeshadow, Makeup, Face Cream, Lotion, Lip Balm, Body Butter, Scrub and Other DIY Beauty Products 10 gram - pack of 12pcs (PINK)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.in/Plastic-Cosmetic-Container-Eyeshadow-Products/dp/B0C4ZSKN6F/ref=sr_1_33?crid=3HX1IVY53KV90&amp;keywords=cosmetic+Product&amp;qid=1693367279&amp;sprefix=cosmetic+product%2Caps%2C215&amp;sr=8-33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>440</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FIXDERMA COSMETIC LABORATORIES Skin Brightening Complex Lotion, Improves Skin Texture, Deeply Hydrates &amp; Moisturizes for All Skin Types, 30ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.in/FCL-Brightening-Complex-Arbutin-Hyaluronic/dp/B089MK9YT9/ref=sr_1_34?crid=3HX1IVY53KV90&amp;keywords=cosmetic+Product&amp;qid=1693367279&amp;sprefix=cosmetic+product%2Caps%2C215&amp;sr=8-34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,125</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zenvista Meditech Beautiful Diy Skin Care Cosmetics Shan Jars with Elegant White Transparent Lids Suitable For Lip Balms, Personal Care and Beauty Products (50 gm). (Pack of 10)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.in/Zenvista-Meditech-Beautiful-Cosmetics-Transparent/dp/B07YZHMN2F/ref=sr_1_35?crid=3HX1IVY53KV90&amp;keywords=cosmetic+Product&amp;qid=1693367279&amp;sprefix=cosmetic+product%2Caps%2C215&amp;sr=8-35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>499</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nsb herbals 8 Gm Empty Acrylic San Jar Transparent/Clear Cosmetic Container With Gold Lid And Inner Lids For Lip Balms, Eyeshadow, Makeup And Diy Beauty Products (Pack Of 3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.in/nsb-Transparent-Container-Leakproof-Eyeshadow/dp/B09FTF866B/ref=sr_1_36?crid=3HX1IVY53KV90&amp;keywords=cosmetic+Product&amp;qid=1693367279&amp;sprefix=cosmetic+product%2Caps%2C215&amp;sr=8-36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30 ML Empty Airless Makeup Cosmetic Jar Container with Press Pump Airless Pump Jars, The Best Refillable Container Jar for Leak Proof Portable Travel Size Container, Cream Beauty Products</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.in/Cosmetic-Container-Refillable-Portable-Products/dp/B0CD5HJ7RK/ref=sr_1_37?crid=3HX1IVY53KV90&amp;keywords=cosmetic+Product&amp;qid=1693367279&amp;sprefix=cosmetic+product%2Caps%2C215&amp;sr=8-37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>299</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nsb herbals 15 G Empty Acrylic San Jar Transparent / Clear Cosmetic Container With Gold Lid And Inner Lids For Lip Balms, Lip Scrubs, Body Butters, Eyeshadow, Makeup And Diy Products (3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.in/nsb-Transparent-Container-Leakproof-Eyeshadow/dp/B09S8LCC9M/ref=sr_1_38?crid=3HX1IVY53KV90&amp;keywords=cosmetic+Product&amp;qid=1693367279&amp;sprefix=cosmetic+product%2Caps%2C215&amp;sr=8-38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SPC 50 ml Empty Plastic Cosmetic Jar/Container for Eyeshadow, Makeup, Face Cream, Lotion, Lip Balm, Body Butter, Scrub and Other DIY Beauty Products (12pcs,Clear)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.in/SPC-Cosmetic-Container-Eyeshadow-Products/dp/B083C1MF9J/ref=sr_1_39?crid=3HX1IVY53KV90&amp;keywords=cosmetic+Product&amp;qid=1693367279&amp;sprefix=cosmetic+product%2Caps%2C215&amp;sr=8-39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nsb Herbals 15 g Empty Acrylic San Jar Transparent/Clear Cosmetic Container with While Lid and Leakproof Inner lids for Lip Balms, Lip Scrubs, Body Butters, Eyeshadow, Makeup &amp; DIY Products (3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.in/Transparent-Cosmetic-Container-Leakproof-Eyeshadow/dp/B0BX3YQHXP/ref=sr_1_40?crid=3HX1IVY53KV90&amp;keywords=cosmetic+Product&amp;qid=1693367279&amp;sprefix=cosmetic+product%2Caps%2C215&amp;sr=8-40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue Heaven Festive MakeUp Kit For Women, Fair Tone Combo, 75gm (Pack of 8)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.in/Blue-Heaven-Festive-Vanilla-Multicolour/dp/B09HSPHL7M/ref=sr_1_41?crid=3HX1IVY53KV90&amp;keywords=cosmetic+Product&amp;qid=1693367279&amp;sprefix=cosmetic+product%2Caps%2C215&amp;sr=8-41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>639</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nsb herbals 15 G Empty Acrylic San Jar Transparent/Clear Cosmetic Container With Black Lid And Inner Lids For Lip Balms, Lip Scrubs, Body Butters, Eyeshadow, Makeup And Diy Products (3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.in/nsb-Transparent-Container-Leakproof-Eyeshadow/dp/B09S8WQFRM/ref=sr_1_42?crid=3HX1IVY53KV90&amp;keywords=cosmetic+Product&amp;qid=1693367279&amp;sprefix=cosmetic+product%2Caps%2C215&amp;sr=8-42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SUGAR Cosmetics Drop The Base Serum Foundation - 10 Latte (Light, Warm Undertone)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.in/SUGAR-Cosmetics-Drop-Serum-Foundation/dp/B011IUEWMC/ref=sr_1_43?crid=3HX1IVY53KV90&amp;keywords=cosmetic+Product&amp;qid=1693367279&amp;sprefix=cosmetic+product%2Caps%2C215&amp;sr=8-43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>755</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SLK Wood Products Multifunctional Wooden Box, Cosmetic Box, Storage Box</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.in/SLK-Wood-Products-Multifunctional-Cosmetic/dp/B078QYR1YR/ref=sr_1_44?crid=3HX1IVY53KV90&amp;keywords=cosmetic+Product&amp;qid=1693367279&amp;sprefix=cosmetic+product%2Caps%2C215&amp;sr=8-44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>599</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fixderma Cosmetic Laboratories 5% Hyaluronic Acid HA4 Plus Serum for dry skin, Serum for open pores reduces fine lines and wrinkles, Improves the elasticity of the skin - 30ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.in/Fixderma-Cosmetic-Laboratories-Hyaluronic-elasticity/dp/B08PP2HY1M/ref=sr_1_45?crid=3HX1IVY53KV90&amp;keywords=cosmetic+Product&amp;qid=1693367279&amp;sprefix=cosmetic+product%2Caps%2C215&amp;sr=8-45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,850</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Homeotrade Amber Round Glass Jars 120Gm Empty Cosmetic Containers With Inner Liners And Black Lids For Slime, Beauty Products, Cosmetic, Lotion,Powders, 4Pcs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.in/Homeotrade-Cosmetic-Containers-Products-Powders/dp/B093X2CRFP/ref=sr_1_46?crid=3HX1IVY53KV90&amp;keywords=cosmetic+Product&amp;qid=1693367279&amp;sprefix=cosmetic+product%2Caps%2C215&amp;sr=8-46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fixderma Cosmetic Laboratories 25% Vitamin C Serum for Face, C Scape, Moisturize Skin Lightening &amp; Brightening for Face, Reduces Fine Lines, Wrinkles, Age Spots for All Skin Types, 30ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.in/Fixderma-Laboratories-Moisturize-Lightening-Brightening/dp/B089NP3LCY/ref=sr_1_47?crid=3HX1IVY53KV90&amp;keywords=cosmetic+Product&amp;qid=1693367279&amp;sprefix=cosmetic+product%2Caps%2C215&amp;sr=8-47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,625</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Plum Daily Skincare Essentials | Mithila Palkar Gift Kit| For Nourished &amp; Glowing Skin | All Skin Types | 100% Vegan | Valentine's Day Gift</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.in/Plum-Skincare-Essentials-Nourished-Valentines/dp/B0BDKZ78Q3/ref=sr_1_48?crid=3HX1IVY53KV90&amp;keywords=cosmetic+Product&amp;qid=1693367279&amp;sprefix=cosmetic+product%2Caps%2C215&amp;sr=8-48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,264</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xacton Cosmetic organiser Storage Box I Plastic Makeup Lipstick Nail Polish, Brushes Storage Box I Multi-function Case Holder for Home, Office Bedroom I Skin Care Products for Dressing Table</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.in/Xacton-Cosmetic-organiser-Lipstick-Multi-function/dp/B0BTM1DBTV/ref=sr_1_49?crid=3HX1IVY53KV90&amp;keywords=cosmetic+Product&amp;qid=1693367279&amp;sprefix=cosmetic+product%2Caps%2C215&amp;sr=8-49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SPC 12pcs - 10 ml Empty Plastic Cosmetic Jar/Container for Eyeshadow, Makeup, Face Cream, Lotion, Lip Balm, Body Butter, Scrub and Other DIY Beauty Products (Clear)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.in/SPC-12pcs-Cosmetic-Container-Eyeshadow/dp/B083HD89CR/ref=sr_1_50?crid=3HX1IVY53KV90&amp;keywords=cosmetic+Product&amp;qid=1693367279&amp;sprefix=cosmetic+product%2Caps%2C215&amp;sr=8-50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>220</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LACOPINE Solid 28 Cms Cosmetic Pouch (Meduim_Makeup Organizer Bag_PINK)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.in/LACOPINE-Portable-Cosmetic-Organizer-Functional/dp/B09DRZDHTJ/ref=sr_1_51?crid=3HX1IVY53KV90&amp;keywords=cosmetic+Product&amp;qid=1693367279&amp;sprefix=cosmetic+product%2Caps%2C215&amp;sr=8-51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Right Products Travel Bottle Set Toiletries Liquid Containers for Cosmetic Make-up Refillable Bottles.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.in/Right-Products-Travel-Bottle-Set/dp/B07S9F3DTC/ref=sr_1_55?crid=3HX1IVY53KV90&amp;keywords=cosmetic+Product&amp;qid=1693367279&amp;sprefix=cosmetic+product%2Caps%2C215&amp;sr=8-55</x:t>
+  </x:si>
+  <x:si>
     <x:t>Oversized Baggy Fit Comfortable Pure Cotton Round Neck T-Shirt with Originals Frog Print Collection Tee for Men &amp; Boys (Swan White &amp; Mint Green)</x:t>
   </x:si>
   <x:si>
@@ -574,9 +910,6 @@
     <x:t>https://www.amazon.in/Modern-Soul-Women-Oversized-T-Shirts/dp/B0BVTH24WL/ref=sr_1_6?crid=242WU6CBO01A0&amp;keywords=T-shirt+unisex&amp;qid=1693366603&amp;sprefix=t-shirt+unisex%2Caps%2C208&amp;sr=8-6</x:t>
   </x:si>
   <x:si>
-    <x:t>379</x:t>
-  </x:si>
-  <x:si>
     <x:t>Oversized Cotton Blend Half Sleeve Unisex (Women/Men) T-Shirts</x:t>
   </x:si>
   <x:si>
@@ -697,9 +1030,6 @@
     <x:t>https://www.amazon.in/LookMark-Printed-Oversized-T-Shirt-MT22-MAROON-L/dp/B0CCD8BLVV/ref=sr_1_28?crid=242WU6CBO01A0&amp;keywords=T-shirt+unisex&amp;qid=1693366603&amp;sprefix=t-shirt+unisex%2Caps%2C208&amp;sr=8-28</x:t>
   </x:si>
   <x:si>
-    <x:t>299</x:t>
-  </x:si>
-  <x:si>
     <x:t>Kids Unisex T-Shirt- Best in Comfort and Ease| Cotton| Dark Green Colour| Round Neck| Casual Look with Chest Print.</x:t>
   </x:si>
   <x:si>
@@ -836,9 +1166,6 @@
   </x:si>
   <x:si>
     <x:t>https://www.amazon.in/Unisex-Jujutsu-Kaisen-Printed-T-Shirt/dp/B0BTPLLNLW/ref=sr_1_52?crid=242WU6CBO01A0&amp;keywords=T-shirt+unisex&amp;qid=1693366603&amp;sprefix=t-shirt+unisex%2Caps%2C208&amp;sr=8-52</x:t>
-  </x:si>
-  <x:si>
-    <x:t>499</x:t>
   </x:si>
   <x:si>
     <x:t>T-Shirt for Man &amp; Women, 100%, Skinfriendly &amp; Comfortable, Break Rules, Round Neck, Half Sleeve T-Shirt | Fitness Collection Plus Sizes, Unisex, (L - 7XL)</x:t>
@@ -877,7 +1204,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="4">
     <x:numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <x:numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
@@ -1829,7 +2156,7 @@
       <x:selection activeCell="A1" sqref="A1"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="23.358244" defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultColWidth="24.068869" defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="0" t="s">
@@ -2590,8 +2917,478 @@
       <x:selection activeCell="A1" sqref="A1"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="10.567768" defaultRowHeight="15"/>
-  <x:sheetData/>
+  <x:sheetFormatPr defaultColWidth="11.278393" defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:3">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>180</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:3">
+      <x:c r="A2" s="0" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:3">
+      <x:c r="A3" s="0" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:3">
+      <x:c r="A4" s="0" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>187</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:3">
+      <x:c r="A5" s="0" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>190</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:3">
+      <x:c r="A6" s="0" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>193</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:3">
+      <x:c r="A7" s="0" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>193</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:3">
+      <x:c r="A8" s="0" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>198</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:3">
+      <x:c r="A9" s="0" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>201</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:3">
+      <x:c r="A10" s="0" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>203</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:3">
+      <x:c r="A11" s="0" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>198</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:3">
+      <x:c r="A12" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:3">
+      <x:c r="A13" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>193</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:3">
+      <x:c r="A14" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:3">
+      <x:c r="A15" s="0" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>216</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:3">
+      <x:c r="A16" s="0" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>219</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:3">
+      <x:c r="A17" s="0" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:3">
+      <x:c r="A18" s="0" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:3">
+      <x:c r="A19" s="0" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>227</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:3">
+      <x:c r="A20" s="0" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:3">
+      <x:c r="A21" s="0" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>233</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:3">
+      <x:c r="A22" s="0" t="s">
+        <x:v>234</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>236</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:3">
+      <x:c r="A23" s="0" t="s">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:3">
+      <x:c r="A24" s="0" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>240</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:3">
+      <x:c r="A25" s="0" t="s">
+        <x:v>241</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>243</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:3">
+      <x:c r="A26" s="0" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>246</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:3">
+      <x:c r="A27" s="0" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>249</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:3">
+      <x:c r="A28" s="0" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>251</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>177</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:3">
+      <x:c r="A29" s="0" t="s">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
+        <x:v>254</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:3">
+      <x:c r="A30" s="0" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>256</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>177</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:3">
+      <x:c r="A31" s="0" t="s">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:3">
+      <x:c r="A32" s="0" t="s">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>260</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="s">
+        <x:v>177</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:3">
+      <x:c r="A33" s="0" t="s">
+        <x:v>261</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="s">
+        <x:v>263</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:3">
+      <x:c r="A34" s="0" t="s">
+        <x:v>264</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>265</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="s">
+        <x:v>177</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:3">
+      <x:c r="A35" s="0" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>267</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="s">
+        <x:v>268</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:3">
+      <x:c r="A36" s="0" t="s">
+        <x:v>269</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>270</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="s">
+        <x:v>271</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:3">
+      <x:c r="A37" s="0" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>273</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="s">
+        <x:v>274</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:3">
+      <x:c r="A38" s="0" t="s">
+        <x:v>275</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="s">
+        <x:v>249</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:3">
+      <x:c r="A39" s="0" t="s">
+        <x:v>277</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>278</x:v>
+      </x:c>
+      <x:c r="C39" s="0" t="s">
+        <x:v>279</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:3">
+      <x:c r="A40" s="0" t="s">
+        <x:v>280</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="s">
+        <x:v>282</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:3">
+      <x:c r="A41" s="0" t="s">
+        <x:v>283</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>284</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:3">
+      <x:c r="A42" s="0" t="s">
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
+        <x:v>286</x:v>
+      </x:c>
+      <x:c r="C42" s="0" t="s">
+        <x:v>287</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:3">
+      <x:c r="A43" s="0" t="s">
+        <x:v>288</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
+        <x:v>289</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:3">
+      <x:c r="A44" s="0" t="s">
+        <x:v>290</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
@@ -2611,7 +3408,7 @@
       <x:selection activeCell="F30" sqref="F30"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="11.282054" defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultColWidth="11.992679" defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:6">
       <x:c r="A1" s="0" t="s">
@@ -2626,65 +3423,65 @@
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>294</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6">
       <x:c r="A3" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>213</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
       <x:c r="A4" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>299</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>213</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>304</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
         <x:v>34</x:v>
@@ -2692,21 +3489,21 @@
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>294</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
         <x:v>34</x:v>
@@ -2714,43 +3511,43 @@
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>313</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>204</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>313</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="A12" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>206</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>313</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6">
       <x:c r="A13" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
         <x:v>77</x:v>
@@ -2758,196 +3555,196 @@
     </x:row>
     <x:row r="14" spans="1:6">
       <x:c r="A14" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>294</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:6">
       <x:c r="A15" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>323</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:6">
       <x:c r="A16" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>326</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:6">
       <x:c r="A17" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>329</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:6">
       <x:c r="A18" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>332</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:6">
       <x:c r="A19" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>294</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:6">
       <x:c r="A20" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>254</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:6">
       <x:c r="A21" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>338</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:6">
       <x:c r="A22" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>231</x:v>
+        <x:v>341</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:6">
       <x:c r="A23" s="0" t="s">
-        <x:v>232</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>294</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:6">
       <x:c r="A24" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>346</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:6">
       <x:c r="A25" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>294</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:6">
       <x:c r="A26" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>240</x:v>
+        <x:v>350</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:6">
       <x:c r="A27" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>353</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:6">
       <x:c r="A28" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>355</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:6">
       <x:c r="A29" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>356</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:6">
       <x:c r="A30" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>358</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:6">
       <x:c r="A31" s="0" t="s">
-        <x:v>249</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>254</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:6">
       <x:c r="A32" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
         <x:v>77</x:v>
@@ -2955,70 +3752,70 @@
     </x:row>
     <x:row r="33" spans="1:6">
       <x:c r="A33" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>364</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:6">
       <x:c r="A34" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>366</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:6">
       <x:c r="A35" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>313</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:6">
       <x:c r="A36" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>371</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:6">
       <x:c r="A37" s="0" t="s">
-        <x:v>262</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>263</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
-        <x:v>264</x:v>
+        <x:v>374</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:6">
       <x:c r="A38" s="0" t="s">
-        <x:v>265</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>266</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
-        <x:v>231</x:v>
+        <x:v>341</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:6">
       <x:c r="A39" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>377</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>268</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
         <x:v>77</x:v>
@@ -3026,68 +3823,68 @@
     </x:row>
     <x:row r="40" spans="1:6">
       <x:c r="A40" s="0" t="s">
-        <x:v>269</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>270</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>254</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:6">
       <x:c r="A41" s="0" t="s">
-        <x:v>271</x:v>
+        <x:v>381</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
-        <x:v>272</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
-        <x:v>273</x:v>
+        <x:v>249</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:6">
       <x:c r="A42" s="0" t="s">
-        <x:v>274</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
-        <x:v>275</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
-        <x:v>276</x:v>
+        <x:v>385</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:6">
       <x:c r="A43" s="0" t="s">
-        <x:v>277</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
-        <x:v>278</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C43" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>388</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:6">
       <x:c r="A44" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="C44" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>313</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:6">
       <x:c r="A45" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="C45" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>393</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
